--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -761,7 +761,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|Procedure)
+    <t xml:space="preserve">Reference(MedicationRequest|Procedure|ServiceRequest)
 </t>
   </si>
   <si>
@@ -5126,7 +5126,7 @@
         <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="456">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>CareTradeOff</t>
+    <t>PCOCareTradeOff</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -441,21 +441,21 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -465,30 +465,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Observation.extension:pertainsToGoal</t>
-  </si>
-  <si>
-    <t>pertainsToGoal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {resource-pertainsToGoal}
-</t>
-  </si>
-  <si>
-    <t>The goal that has this trade-off</t>
-  </si>
-  <si>
-    <t>Indicates that the resource is related to either the measurement, achievement or progress towards the referenced goal.  For example, a Procedure to exercise pertainsToGoal of losing weight.</t>
-  </si>
-  <si>
-    <t>This extension is  limited to subject-specific activity-related resources (events &amp; intents).  I.e. This can't be put on Goal or Patient.  This association isn't for the purpose of goal management, but for things such as noting that a particular observation result, prescription or other activity is pertinent to the achievement (or possibly non-achievement) of the referenced goal.</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -498,9 +475,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -659,6 +633,9 @@
   <si>
     <t xml:space="preserve">pattern:$this}
 </t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -761,11 +738,11 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|Procedure|ServiceRequest)
+    <t xml:space="preserve">Reference(Goal|MedicationRequest|ServiceRequest|Procedure)
 </t>
   </si>
   <si>
-    <t>The medication or procedure that has this trade-off</t>
+    <t>The goal, medication and/or procedure that has this trade-off</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
@@ -1194,9 +1171,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1793,7 +1767,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1804,7 +1778,7 @@
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.9765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2820,7 +2794,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2839,15 +2813,17 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -2884,14 +2860,16 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>142</v>
@@ -2918,7 +2896,7 @@
         <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>82</v>
@@ -2932,43 +2910,43 @@
         <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3016,7 +2994,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3040,7 +3018,7 @@
         <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>82</v>
@@ -3051,14 +3029,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3071,25 +3049,23 @@
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>82</v>
@@ -3138,7 +3114,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3150,22 +3126,22 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>82</v>
@@ -3173,14 +3149,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3199,17 +3175,17 @@
         <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3258,7 +3234,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3273,19 +3249,19 @@
         <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>82</v>
@@ -3293,14 +3269,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3319,18 +3295,18 @@
         <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="N13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
       </c>
@@ -3378,7 +3354,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3393,16 +3369,16 @@
         <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>82</v>
@@ -3413,44 +3389,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
       </c>
@@ -3474,13 +3452,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -3498,13 +3476,13 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
@@ -3513,19 +3491,19 @@
         <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>82</v>
@@ -3533,10 +3511,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3547,31 +3525,31 @@
         <v>92</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3596,37 +3574,35 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AC15" s="2"/>
+      <c r="AD15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
@@ -3635,19 +3611,19 @@
         <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3655,12 +3631,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
       </c>
@@ -3669,7 +3647,7 @@
         <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>93</v>
@@ -3681,19 +3659,19 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3703,7 +3681,7 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3718,29 +3696,31 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3764,10 +3744,10 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -3775,16 +3755,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3800,22 +3778,22 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3825,7 +3803,7 @@
         <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>82</v>
@@ -3840,11 +3818,9 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
         <v>212</v>
       </c>
@@ -3864,13 +3840,13 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
@@ -3879,34 +3855,34 @@
         <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3925,19 +3901,19 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3962,32 +3938,34 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>92</v>
@@ -3999,30 +3977,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4030,10 +4008,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>93</v>
@@ -4045,20 +4023,18 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4106,13 +4082,13 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
@@ -4121,19 +4097,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>234</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4141,24 +4117,24 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
@@ -4178,7 +4154,9 @@
       <c r="N20" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4226,13 +4204,13 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
@@ -4241,19 +4219,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4261,14 +4239,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4278,7 +4256,7 @@
         <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
@@ -4287,19 +4265,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4348,7 +4326,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4363,19 +4341,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4383,14 +4361,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4400,7 +4378,7 @@
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4409,20 +4387,18 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4470,7 +4446,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4485,19 +4461,19 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4505,10 +4481,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4519,10 +4495,10 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -4531,18 +4507,18 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4590,13 +4566,13 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>82</v>
@@ -4605,19 +4581,19 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4625,10 +4601,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4636,10 +4612,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>93</v>
@@ -4651,17 +4627,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4686,13 +4664,11 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -4710,45 +4686,45 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>82</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4756,34 +4732,34 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4808,11 +4784,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4830,7 +4808,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4839,7 +4817,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4848,38 +4826,38 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>288</v>
+        <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>289</v>
+        <v>135</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -4891,19 +4869,19 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4928,13 +4906,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4952,16 +4930,16 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4970,31 +4948,31 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5004,7 +4982,7 @@
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -5013,19 +4991,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5050,13 +5028,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5074,7 +5052,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5092,27 +5070,27 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>313</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5123,10 +5101,10 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>82</v>
@@ -5135,7 +5113,7 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>315</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>316</v>
@@ -5146,9 +5124,7 @@
       <c r="N28" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="O28" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5172,13 +5148,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5196,13 +5172,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5214,27 +5190,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>82</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5257,18 +5233,20 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5292,31 +5270,31 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5334,27 +5312,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5377,20 +5355,18 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>198</v>
+        <v>336</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5414,13 +5390,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>339</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5438,7 +5414,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5456,27 +5432,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5499,16 +5475,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5558,7 +5534,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5576,27 +5552,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5607,7 +5583,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5619,18 +5595,20 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5678,45 +5656,45 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5727,7 +5705,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5739,20 +5717,16 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O33" t="s" s="2">
         <v>365</v>
       </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5800,19 +5774,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -5821,10 +5795,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -5835,21 +5809,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5861,15 +5835,17 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>371</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -5918,19 +5894,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5942,7 +5918,7 @@
         <v>82</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5953,14 +5929,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>151</v>
+        <v>372</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5973,24 +5949,26 @@
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6038,7 +6016,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6062,7 +6040,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6073,46 +6051,42 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>137</v>
+        <v>377</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6160,19 +6134,19 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>82</v>
@@ -6181,10 +6155,10 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>135</v>
+        <v>382</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6195,10 +6169,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6221,13 +6195,13 @@
         <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6278,7 +6252,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6287,7 +6261,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>104</v>
@@ -6299,10 +6273,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6313,10 +6287,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6339,16 +6313,20 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>385</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6372,13 +6350,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6396,7 +6374,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6405,7 +6383,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6414,13 +6392,13 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>82</v>
+        <v>394</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>394</v>
+        <v>305</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6431,10 +6409,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6445,7 +6423,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6457,19 +6435,19 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6494,13 +6472,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>116</v>
+        <v>319</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6518,13 +6496,13 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -6536,13 +6514,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6553,10 +6531,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6567,7 +6545,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6579,7 +6557,7 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>405</v>
@@ -6587,11 +6565,9 @@
       <c r="M40" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6616,13 +6592,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>409</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6640,13 +6616,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6658,13 +6634,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>312</v>
+        <v>408</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6675,10 +6651,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6701,18 +6677,16 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6760,7 +6734,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6781,10 +6755,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6795,10 +6769,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6809,7 +6783,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6818,18 +6792,20 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -6878,13 +6854,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6899,10 +6875,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6913,10 +6889,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6939,16 +6915,16 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6998,7 +6974,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7019,10 +6995,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7033,10 +7009,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7059,18 +7035,20 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7118,7 +7096,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7139,10 +7117,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7153,10 +7131,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7167,7 +7145,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7176,23 +7154,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>435</v>
+        <v>364</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7240,19 +7214,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7261,10 +7235,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>439</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>440</v>
+        <v>367</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7275,21 +7249,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7301,15 +7275,17 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>139</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7358,19 +7334,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7382,7 +7358,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7393,14 +7369,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>151</v>
+        <v>372</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7413,24 +7389,26 @@
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7478,7 +7456,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7502,7 +7480,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7513,45 +7491,45 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>154</v>
+        <v>439</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -7576,13 +7554,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7600,34 +7578,34 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -7635,10 +7613,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7646,7 +7624,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>92</v>
@@ -7661,19 +7639,19 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>444</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>445</v>
       </c>
       <c r="M49" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="O49" t="s" s="2">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7698,13 +7676,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>449</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7722,10 +7700,10 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>92</v>
@@ -7740,27 +7718,27 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7780,22 +7758,22 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>452</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>283</v>
+        <v>450</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7820,13 +7798,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>292</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7844,7 +7822,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7853,7 +7831,7 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>104</v>
@@ -7862,38 +7840,38 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>289</v>
+        <v>135</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7905,19 +7883,19 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>457</v>
+        <v>297</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>458</v>
+        <v>298</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7942,13 +7920,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7966,16 +7944,16 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7984,31 +7962,31 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>135</v>
+        <v>304</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8027,19 +8005,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>305</v>
+        <v>455</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>306</v>
+        <v>357</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8064,13 +8042,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8088,7 +8066,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8106,145 +8084,23 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>311</v>
+        <v>360</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP53" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP53">
+  <autoFilter ref="A1:AP52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8254,7 +8110,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -683,7 +683,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-valueset</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-care-tradeoff-valueset</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="465">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -671,7 +671,7 @@
 </t>
   </si>
   <si>
-    <t>Type of care trade-off</t>
+    <t>Indicates whether this care is helpful or bothersome</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -683,7 +683,10 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-care-tradeoff-valueset</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-choices-vs</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -880,7 +883,11 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Indicates whether this care is helpful or bothersome</t>
+    <t>CodeableConcept
+string</t>
+  </si>
+  <si>
+    <t>(USCDI) Actual result</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -892,7 +899,11 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-choices-valueset</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -911,6 +922,34 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Type of care selected from a list</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-care-tradeoff-examples-vs</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Free-text description of a care trade-off</t>
+  </si>
+  <si>
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
@@ -927,9 +966,6 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
@@ -1018,9 +1054,6 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
@@ -1152,10 +1185,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1767,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1778,7 +1807,7 @@
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3818,11 +3847,11 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3855,30 +3884,30 @@
         <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3901,19 +3930,19 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3962,7 +3991,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3977,19 +4006,19 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>82</v>
@@ -3997,10 +4026,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4023,16 +4052,16 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4082,7 +4111,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4103,13 +4132,13 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4117,14 +4146,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4143,19 +4172,19 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4204,7 +4233,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4219,19 +4248,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4239,14 +4268,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4265,19 +4294,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4326,7 +4355,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4341,19 +4370,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4361,10 +4390,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4387,16 +4416,16 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4446,7 +4475,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4467,13 +4496,13 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4481,10 +4510,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4507,17 +4536,17 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -4566,7 +4595,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4581,19 +4610,19 @@
         <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4601,10 +4630,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4627,19 +4656,19 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -4664,29 +4693,29 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4695,7 +4724,7 @@
         <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>104</v>
@@ -4704,29 +4733,31 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4738,28 +4769,28 @@
         <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4784,11 +4815,9 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Y25" t="s" s="2">
         <v>291</v>
       </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
         <v>292</v>
       </c>
@@ -4808,7 +4837,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4817,7 +4846,7 @@
         <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
@@ -4826,62 +4855,64 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>82</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>295</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4906,13 +4937,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4930,16 +4961,16 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4948,27 +4979,27 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4979,10 +5010,10 @@
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -4991,19 +5022,19 @@
         <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5028,13 +5059,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5052,16 +5083,16 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5073,10 +5104,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>313</v>
+        <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5087,21 +5118,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>307</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5116,15 +5147,17 @@
         <v>190</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
       </c>
@@ -5148,13 +5181,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5172,13 +5205,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5190,27 +5223,27 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5221,10 +5254,10 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>82</v>
@@ -5233,19 +5266,19 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5270,13 +5303,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5294,13 +5327,13 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
@@ -5315,10 +5348,10 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5329,10 +5362,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5355,16 +5388,16 @@
         <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>336</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5390,13 +5423,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5414,7 +5447,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5432,27 +5465,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5475,18 +5508,20 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>345</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5510,13 +5545,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>341</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>342</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5534,7 +5569,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5552,27 +5587,27 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>352</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5583,7 +5618,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5595,20 +5630,18 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5656,45 +5689,45 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5717,15 +5750,17 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5774,7 +5809,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5786,37 +5821,37 @@
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5835,18 +5870,20 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5894,7 +5931,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5906,7 +5943,7 @@
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>143</v>
+        <v>369</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5915,10 +5952,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5929,33 +5966,33 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>373</v>
@@ -5963,12 +6000,8 @@
       <c r="M35" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6022,13 +6055,13 @@
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6040,7 +6073,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>135</v>
+        <v>376</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6051,21 +6084,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -6077,15 +6110,17 @@
         <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>377</v>
+        <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6134,31 +6169,31 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6169,42 +6204,46 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>377</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6252,19 +6291,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6273,10 +6312,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>381</v>
+        <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>386</v>
+        <v>135</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6287,10 +6326,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6313,20 +6352,16 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>391</v>
-      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6350,13 +6385,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6374,7 +6409,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6383,7 +6418,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6392,13 +6427,13 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6409,10 +6444,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6423,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6435,20 +6470,16 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6472,13 +6503,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6496,16 +6527,16 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6514,13 +6545,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>394</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6531,10 +6562,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6557,17 +6588,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>404</v>
+        <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O40" t="s" s="2">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6592,13 +6625,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6616,7 +6649,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6634,13 +6667,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6651,10 +6684,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6665,7 +6698,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6677,16 +6710,20 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6710,13 +6747,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>291</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6734,13 +6771,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -6752,13 +6789,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>412</v>
+        <v>316</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6769,10 +6806,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6783,7 +6820,7 @@
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -6792,21 +6829,21 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6854,13 +6891,13 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
@@ -6875,10 +6912,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6889,10 +6926,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6903,7 +6940,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -6912,20 +6949,18 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>421</v>
+        <v>295</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -6974,13 +7009,13 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -6995,10 +7030,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7009,10 +7044,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7035,20 +7070,18 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7096,7 +7129,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7117,10 +7150,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7131,10 +7164,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7145,7 +7178,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>82</v>
@@ -7154,18 +7187,20 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>430</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7214,19 +7249,19 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7235,10 +7270,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>367</v>
+        <v>434</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7249,14 +7284,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7272,21 +7307,23 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>436</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
+        <v>437</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7334,7 +7371,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7346,7 +7383,7 @@
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7355,10 +7392,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>440</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7369,33 +7406,33 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>295</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>373</v>
@@ -7403,12 +7440,8 @@
       <c r="M47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7462,13 +7495,13 @@
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7480,7 +7513,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>135</v>
+        <v>376</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7491,21 +7524,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7514,23 +7547,21 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>437</v>
+        <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7554,13 +7585,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>441</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7578,34 +7609,34 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>216</v>
+        <v>376</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>217</v>
+        <v>82</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>82</v>
@@ -7613,45 +7644,45 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>276</v>
+        <v>383</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>446</v>
+        <v>141</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7700,45 +7731,45 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7746,7 +7777,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>92</v>
@@ -7758,22 +7789,22 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7798,13 +7829,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>291</v>
+        <v>449</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>292</v>
+        <v>450</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7822,16 +7853,16 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>104</v>
@@ -7840,16 +7871,16 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>294</v>
+        <v>217</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -7864,14 +7895,14 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7880,22 +7911,22 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>453</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>454</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>299</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7920,13 +7951,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7950,7 +7981,7 @@
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -7962,27 +7993,27 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>303</v>
+        <v>456</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7993,7 +8024,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8005,19 +8036,19 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>357</v>
+        <v>460</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8042,13 +8073,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>302</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8066,16 +8097,16 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8087,20 +8118,264 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>360</v>
+        <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP52">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8110,7 +8385,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -934,7 +934,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/pco/ValueSet/ppc-care-tradeoff-examples-vs</t>
+    <t>http://hl7.org/fhir/us/pco/ValueSet/pco-care-tradeoff-types-example-vs</t>
   </si>
   <si>
     <t>Observation.value[x]:valueString</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>PCOCareTradeOff</t>
+    <t>PCOCareTradeOffProfile</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-care-tradeoff.xlsx
+++ b/StructureDefinition-pco-care-tradeoff.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
